--- a/Design/group3B_M2_RTL.xlsx
+++ b/Design/group3B_M2_RTL.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>G-type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>lda</t>
   </si>
@@ -59,25 +56,10 @@
 PC=PC+2</t>
   </si>
   <si>
-    <t>A=Reg[ IR[11:6] ]</t>
-  </si>
-  <si>
-    <t>Reg[ IR[5:0] ]=Mem[A+ImR]</t>
-  </si>
-  <si>
     <t>Reg[ IR[5:0] ]=ImR</t>
   </si>
   <si>
-    <t>B=Reg[ IR[5:0] ]</t>
-  </si>
-  <si>
-    <t>Mem[B+ImR]=A</t>
-  </si>
-  <si>
     <t>PC=ImR</t>
-  </si>
-  <si>
-    <t>RA=PC+4</t>
   </si>
   <si>
     <t>Instruction Fetch</t>
@@ -88,6 +70,77 @@
   <si>
     <t>Group3B - eckelsjd, morganbm, tuey, dripchar
 CSSE232-03 - Milestone 2 - 1/14/19</t>
+  </si>
+  <si>
+    <t>sft</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>I Type</t>
+  </si>
+  <si>
+    <t>G Type</t>
+  </si>
+  <si>
+    <t>Other G-type</t>
+  </si>
+  <si>
+    <t>Decode / PC move</t>
+  </si>
+  <si>
+    <t>Execution / Memory</t>
+  </si>
+  <si>
+    <t>A=Reg[ IR[11:6] ]
+B=Reg[ IR[5:0] ]</t>
+  </si>
+  <si>
+    <t>RA=PC
+PC=ImR</t>
+  </si>
+  <si>
+    <t>A=Reg[ IR[11:16] ]
+B=Reg[ IR[5:0] ]</t>
+  </si>
+  <si>
+    <t>ALUout=A+ImR</t>
+  </si>
+  <si>
+    <t>Fcache[FCC]=Reg[15:0]
+FCC=FCC+1</t>
+  </si>
+  <si>
+    <t>If(A==B), PC=ImR</t>
+  </si>
+  <si>
+    <t>Reg[ IR[5:0] ]=A&lt;&lt;ImR</t>
+  </si>
+  <si>
+    <t>Reg[IR[5:0]]=Mem[ALUout]</t>
+  </si>
+  <si>
+    <t>Mem[ALUout]=B</t>
+  </si>
+  <si>
+    <t>PC=RA
+FCC=FCC-1</t>
+  </si>
+  <si>
+    <t>Reg[IR[5:0]]=A</t>
+  </si>
+  <si>
+    <t>CR=A&lt;B ? 1:0</t>
+  </si>
+  <si>
+    <t>Reg[ IR[5:0] ]=A op B</t>
+  </si>
+  <si>
+    <t>Reg[15:0]=Fcache[FCC]</t>
   </si>
 </sst>
 </file>
@@ -124,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -158,13 +211,28 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -175,9 +243,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -191,19 +266,130 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color auto="1"/>
       </left>
       <right/>
@@ -214,36 +400,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color auto="1"/>
       </left>
       <right/>
@@ -254,21 +411,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -278,105 +487,74 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -385,89 +563,134 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N20"/>
+  <dimension ref="A4:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,230 +986,295 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="36"/>
+      <c r="F7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="36"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="36"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="36"/>
+      <c r="F10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="36"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="36"/>
+      <c r="F12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="36"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="J15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="36"/>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="21"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="22"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="17"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="18"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+    <row r="17" spans="5:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="36"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+    <row r="18" spans="5:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="36"/>
+      <c r="F18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="5:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="36"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+    <row r="20" spans="5:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="36"/>
+      <c r="F20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
+    <row r="21" spans="5:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="36"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H7:N9"/>
-    <mergeCell ref="G7:G9"/>
+  <mergeCells count="27">
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="G16:J17"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G7:M9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="A4:D5"/>
   </mergeCells>
